--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/5 Análisis Fuerzar Porter.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/5 Análisis Fuerzar Porter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CAF45-530E-4208-B750-D89C8B6FD731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775F84D0-63D3-40E2-B440-0FC1B6BC4897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -531,6 +531,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +822,7 @@
   <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="C2:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,31 +871,35 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="31"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="32" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="32"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="32" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="32"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="31" t="s">
         <v>7</v>
       </c>
+      <c r="D11" s="31"/>
       <c r="E11" s="3"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1348,8 +1358,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
